--- a/pwbi/Risultati/namebeam.xlsx
+++ b/pwbi/Risultati/namebeam.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD1FDB0-16C4-4E97-AF00-B7FF3139396B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD5FE9F-873E-43A2-8D49-13D9FCC68663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data risult" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Object ID</t>
   </si>
@@ -112,16 +112,25 @@
     <t>BEAM</t>
   </si>
   <si>
-    <t>Travi</t>
-  </si>
-  <si>
-    <t>Traversi</t>
+    <t>Travi 1</t>
+  </si>
+  <si>
+    <t>Travi 2</t>
+  </si>
+  <si>
+    <t>Traversi 1</t>
+  </si>
+  <si>
+    <t>Traversi 2</t>
+  </si>
+  <si>
+    <t>Traversi 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -956,11 +965,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1039,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1057,7 +1066,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1110,7 +1119,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">

--- a/pwbi/Risultati/namebeam.xlsx
+++ b/pwbi/Risultati/namebeam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD5FE9F-873E-43A2-8D49-13D9FCC68663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D722FBFA-2B47-431A-8FA2-7E03C3A2CD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Object ID</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Travi 1</t>
   </si>
   <si>
-    <t>Travi 2</t>
-  </si>
-  <si>
     <t>Traversi 1</t>
   </si>
   <si>
@@ -125,6 +122,66 @@
   </si>
   <si>
     <t>Traversi 3</t>
+  </si>
+  <si>
+    <t>Travi 3</t>
+  </si>
+  <si>
+    <t>Travi 4</t>
+  </si>
+  <si>
+    <t>Travi 5</t>
+  </si>
+  <si>
+    <t>Travi 6</t>
+  </si>
+  <si>
+    <t>Travi 7</t>
+  </si>
+  <si>
+    <t>Travi 8</t>
+  </si>
+  <si>
+    <t>Travi 9</t>
+  </si>
+  <si>
+    <t>Travi 10</t>
+  </si>
+  <si>
+    <t>Travi 11</t>
+  </si>
+  <si>
+    <t>Travi 12</t>
+  </si>
+  <si>
+    <t>Travi 13</t>
+  </si>
+  <si>
+    <t>Travi 14</t>
+  </si>
+  <si>
+    <t>Travi 15</t>
+  </si>
+  <si>
+    <t>Travi 16</t>
+  </si>
+  <si>
+    <t>Travi 17</t>
+  </si>
+  <si>
+    <t>Travi 18</t>
+  </si>
+  <si>
+    <t>Travi 19</t>
+  </si>
+  <si>
+    <t>Travi 20</t>
+  </si>
+  <si>
+    <t>Travi 21</t>
+  </si>
+  <si>
+    <t>Travi 22</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1026,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,16 +1051,25 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1014,80 +1080,113 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1103,6 +1202,9 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1113,28 +1215,40 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
